--- a/medicine/Pharmacie/Stigmine/Stigmine.xlsx
+++ b/medicine/Pharmacie/Stigmine/Stigmine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stigmines sont des inhibiteurs de cholinestérase plus ou moins sélectifs selon la molécule considérée. Le chef de file de cette famille est la physostigmine (connu aussi sous le nom de l'ésérine) abandonnée en thérapeutique.
 </t>
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur action est dite parasympathomimétique indirecte, car elle augmente la concentration d'acétylcholine dans la fente synaptique sans toutefois se fixer à un récepteur membranaire. 
 </t>
@@ -542,7 +556,9 @@
           <t>Domaines thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>utilisation en anesthiologie en tant que décurarisant
 antiglaucomateux
